--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
@@ -141,26 +141,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(*) from $schema26 where id&gt;4000 and id&lt;=20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $schema26 set name='BJ' where id&gt;4000 and id&lt;=20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
     <t>Integer,Varchar,Integer,Bigint,Float,Double,Varchar,Date,Time,Timestamp,Varchar,Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from $schema26 where id&gt;400 and id&lt;=6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema26 set name='BJ' where id&gt;400 and id&lt;=6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +534,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -648,40 +648,40 @@
         <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>13</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
@@ -148,19 +148,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(*) from $schema26 where id&gt;400 and id&lt;=6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $schema26 set name='BJ' where id&gt;400 and id&lt;=6000</t>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from $schema26 where id&gt;4000 and id&lt;=20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema26 set name='BJ' where id&gt;4000 and id&lt;=20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
@@ -141,9 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Integer,Varchar,Integer,Bigint,Float,Double,Varchar,Date,Time,Timestamp,Varchar,Boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +159,9 @@
   <si>
     <t>update $schema26 set name='BJ' where id&gt;4000 and id&lt;=20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -648,40 +648,40 @@
         <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>13</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
@@ -161,7 +161,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_batch_cases.xlsx
@@ -145,23 +145,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(*) from $schema26 where id&gt;4000 and id&lt;=20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $schema26 set name='BJ' where id&gt;4000 and id&lt;=20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from $schema26 where id&gt;2000 and id&lt;=10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema26 set name='BJ' where id&gt;2000 and id&lt;=10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -648,7 +648,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -657,31 +657,31 @@
         <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>13</v>
